--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgramingProjects\KatalonProjects\AcademiaQA_Katalon_YourStoreSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF77134-B481-4C4B-8611-C4775E050CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2273B515-6B4B-44C1-B9B8-668F6BFBA11D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{E828D7EE-574E-4891-A092-A3D3FC4A54AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E828D7EE-574E-4891-A092-A3D3FC4A54AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de usuarios" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -117,69 +117,12 @@
     <t>YS-3</t>
   </si>
   <si>
-    <t>Validar el mensaje de error cuando se intenta el registro de un usuario sin Nombre</t>
-  </si>
-  <si>
-    <t>Ver el mensaje de error cuando se intenta registrar un usuario sin Nombre</t>
-  </si>
-  <si>
-    <t>Llenar los datos del formulario para un usuario sin Nombre</t>
-  </si>
-  <si>
     <t>Ver el mensaje de registro fallido por que el usuario no tiene el dato Nombre</t>
   </si>
   <si>
     <t>YS-4</t>
   </si>
   <si>
-    <t>YS-5</t>
-  </si>
-  <si>
-    <t>YS-6</t>
-  </si>
-  <si>
-    <t>YS-7</t>
-  </si>
-  <si>
-    <t>Validar el mensaje de error cuando se intenta el registro de un usuario sin Apellido</t>
-  </si>
-  <si>
-    <t>Ver el mensaje de error cuando se intenta registrar un usuario sin Apellido</t>
-  </si>
-  <si>
-    <t>Llenar los datos del formulario para un usuario sin Apellido</t>
-  </si>
-  <si>
-    <t>Ver el mensaje de registro fallido por que el usuario no tiene el dato Apellido</t>
-  </si>
-  <si>
-    <t>Validar el mensaje de error cuando se intenta el registro de un usuario sin Telefono</t>
-  </si>
-  <si>
-    <t>Ver el mensaje de error cuando se intenta registrar un usuario sin Telefono</t>
-  </si>
-  <si>
-    <t>Llenar los datos del formulario para un usuario sin Telefono</t>
-  </si>
-  <si>
-    <t>Ver el mensaje de registro fallido por que el usuario no tiene el dato Telefono</t>
-  </si>
-  <si>
-    <t>YS-8</t>
-  </si>
-  <si>
-    <t>Validar el mensaje de error cuando se intenta el registro de un usuario sin Contraseña</t>
-  </si>
-  <si>
-    <t>Ver el mensaje de error cuando se intenta registrar un usuario sin Contraseña</t>
-  </si>
-  <si>
-    <t>Llenar los datos del formulario para un usuario sin Contraseña</t>
-  </si>
-  <si>
-    <t>Ver el mensaje de registro fallido por que el usuario no tiene el dato Contraseña</t>
-  </si>
-  <si>
     <t>Validar el mensaje de error cuando se intenta el registro de un usuario sin Politicas de Privacidad</t>
   </si>
   <si>
@@ -189,16 +132,13 @@
     <t>Ver el mensaje de registro fallido por que el usuario no tiene el dato Politicas de Privacidad</t>
   </si>
   <si>
-    <t>Validar el mensaje de error cuando se intenta el registro de un usuario sin Correo Electrónico</t>
-  </si>
-  <si>
-    <t>Ver el mensaje de error cuando se intenta registrar un usuario sin Correo Electrónico</t>
-  </si>
-  <si>
-    <t>Llenar los datos del formulario para un usuario sin Correo Electrónico</t>
-  </si>
-  <si>
-    <t>Ver el mensaje de registro fallido por que el usuario no tiene el dato Correo Electrónico</t>
+    <t>Validar el mensaje de error cuando se intenta el registro de un usuario sin un Parametro</t>
+  </si>
+  <si>
+    <t>Ver el mensaje de error cuando se intenta registrar un usuario sin un Parametro</t>
+  </si>
+  <si>
+    <t>Llenar los datos del formulario para un usuario sin un Parametro</t>
   </si>
 </sst>
 </file>
@@ -605,17 +545,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F160DA0-27CE-4E13-A4C2-D2168D484335}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="40.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" style="1" customWidth="1"/>
   </cols>
@@ -660,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -672,7 +612,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -686,7 +626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -696,7 +636,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -730,7 +670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -742,7 +682,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -756,7 +696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -785,10 +725,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>12</v>
@@ -800,7 +740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -812,12 +752,12 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>17</v>
@@ -826,7 +766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -844,7 +784,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>8</v>
@@ -852,13 +792,13 @@
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>12</v>
@@ -870,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -882,12 +822,12 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="5" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>17</v>
@@ -896,307 +836,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="E20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="12">
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="A2:A6"/>
@@ -1206,21 +866,9 @@
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="C12:C16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgramingProjects\KatalonProjects\AcademiaQA_Katalon_YourStoreSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2273B515-6B4B-44C1-B9B8-668F6BFBA11D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4B4740-6876-4AD8-83BA-676700D08F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E828D7EE-574E-4891-A092-A3D3FC4A54AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Registro de usuarios" sheetId="1" r:id="rId1"/>
+    <sheet name="Login Usuarios" sheetId="2" r:id="rId1"/>
+    <sheet name="Registro Usuarios" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="60">
   <si>
     <t>Id</t>
   </si>
@@ -139,13 +140,88 @@
   </si>
   <si>
     <t>Llenar los datos del formulario para un usuario sin un Parametro</t>
+  </si>
+  <si>
+    <t>YS-5</t>
+  </si>
+  <si>
+    <t>YS-6</t>
+  </si>
+  <si>
+    <t>YS-7</t>
+  </si>
+  <si>
+    <t>YS-8</t>
+  </si>
+  <si>
+    <t>Ingresar a la sección de login para un usuario</t>
+  </si>
+  <si>
+    <t>Validar que el usuario quedó logueado correctamente</t>
+  </si>
+  <si>
+    <t>Ver el mensaje bienvenida</t>
+  </si>
+  <si>
+    <t>Correo Electrónico, Clave</t>
+  </si>
+  <si>
+    <t>Validar el funcionamiento del login para un usuario cuando sus datos son correctos</t>
+  </si>
+  <si>
+    <t>Verificar el login correcto del usuario</t>
+  </si>
+  <si>
+    <t>Validar el funcionamiento del login para un usuario cuando sus datos son incorrectos</t>
+  </si>
+  <si>
+    <t>Verificar que el usuario no se puede loguear de forma correcta</t>
+  </si>
+  <si>
+    <t>Ver el formulario de login de un nuevo usuario</t>
+  </si>
+  <si>
+    <t>Llenar los datos del formulario con valores incorrectos</t>
+  </si>
+  <si>
+    <t>Ver el mensaje de error en la pantalla de login</t>
+  </si>
+  <si>
+    <t>Validar el mensaje de error cuando no se ingresa un dato en el formulario de login</t>
+  </si>
+  <si>
+    <t>Verificar que el mensaje de alerta por parte del sistema</t>
+  </si>
+  <si>
+    <t>Validar que el usuario no quedó logueado</t>
+  </si>
+  <si>
+    <t>Validar el mensaje de error cuando no se ingresa un dato en el formulario</t>
+  </si>
+  <si>
+    <t>Ver el check box seleccionado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar el funcionamiento del logout para un usuario </t>
+  </si>
+  <si>
+    <t>Realizar el logout del usuario</t>
+  </si>
+  <si>
+    <t>Ver la pagina principal</t>
+  </si>
+  <si>
+    <t>Verificar el logout correcto del usuario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,8 +242,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,8 +263,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -204,11 +293,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -231,8 +358,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -544,11 +705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F160DA0-27CE-4E13-A4C2-D2168D484335}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA127C4-19A3-4F30-8CCC-FA866DFE6D7C}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,6 +742,321 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F160DA0-27CE-4E13-A4C2-D2168D484335}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -610,7 +1086,9 @@
       <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -633,8 +1111,12 @@
       <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -680,7 +1162,9 @@
       <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -703,8 +1187,12 @@
       <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -750,7 +1238,9 @@
       <c r="E13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -773,8 +1263,12 @@
       <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -820,7 +1314,9 @@
       <c r="E18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -857,18 +1353,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="C7:C11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgramingProjects\KatalonProjects\AcademiaQA_Katalon_YourStoreSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4B4740-6876-4AD8-83BA-676700D08F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8383A438-395B-4C4A-BC5C-0DDB17D70EB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E828D7EE-574E-4891-A092-A3D3FC4A54AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{E828D7EE-574E-4891-A092-A3D3FC4A54AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login Usuarios" sheetId="2" r:id="rId1"/>
-    <sheet name="Registro Usuarios" sheetId="1" r:id="rId2"/>
+    <sheet name="Registro Usuarios" sheetId="1" r:id="rId1"/>
+    <sheet name="Login Usuarios" sheetId="2" r:id="rId2"/>
+    <sheet name="Carrito de Compra" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="96">
   <si>
     <t>Id</t>
   </si>
@@ -212,6 +213,114 @@
   </si>
   <si>
     <t>Verificar el logout correcto del usuario</t>
+  </si>
+  <si>
+    <t>YS-9</t>
+  </si>
+  <si>
+    <t>Realizar el login del usuario</t>
+  </si>
+  <si>
+    <t>El usuario ingresa de forma correctamente</t>
+  </si>
+  <si>
+    <t>Seleccionar cualquier item</t>
+  </si>
+  <si>
+    <t>Correo Electrónico, Telefono</t>
+  </si>
+  <si>
+    <t>Item a seleccionar</t>
+  </si>
+  <si>
+    <t>Ver el mensaje de comparación con el nombre del producto</t>
+  </si>
+  <si>
+    <t>Ver mensaje de comparación en la ventana del producto</t>
+  </si>
+  <si>
+    <t>YS-10</t>
+  </si>
+  <si>
+    <t>Seleccionar la opción comparar del item</t>
+  </si>
+  <si>
+    <t>Ver el producto favorito  ventana del producto</t>
+  </si>
+  <si>
+    <t>Seleccionar un item para agregar a favoritos</t>
+  </si>
+  <si>
+    <t>Seleccionar la opción favoritos</t>
+  </si>
+  <si>
+    <t>Visualizar pantalla de favoritos</t>
+  </si>
+  <si>
+    <t>Validar que el item existe en la lista de favoritos</t>
+  </si>
+  <si>
+    <t>Ver el item en la lista de favoritos</t>
+  </si>
+  <si>
+    <t>YS-11</t>
+  </si>
+  <si>
+    <t>Validar la eliminacion de un producto favorito</t>
+  </si>
+  <si>
+    <t>Ver el producto favorito  ventana del producto fue eliminado</t>
+  </si>
+  <si>
+    <t>Validar que el item desaparecion de la lista de favoritos</t>
+  </si>
+  <si>
+    <t>El item en la lista de favoritos ya no se encuentra</t>
+  </si>
+  <si>
+    <t>Validar la seleccion de producto favorito</t>
+  </si>
+  <si>
+    <t>Visualización correcta del mensaje de comparar producto</t>
+  </si>
+  <si>
+    <t>YS-12</t>
+  </si>
+  <si>
+    <t>Validar carga de producto en el carrito de compras</t>
+  </si>
+  <si>
+    <t>Ver el producto en el carrito de compras</t>
+  </si>
+  <si>
+    <t>Seleccionar un item para agregar al carrito de compras</t>
+  </si>
+  <si>
+    <t>Seleccionar la opción carrito de compras</t>
+  </si>
+  <si>
+    <t>Validar que el item existe en la lista de carrito de compras</t>
+  </si>
+  <si>
+    <t>Visualizar pantalla de carrito de compras</t>
+  </si>
+  <si>
+    <t>Ver el item en la lista de carrito de compras</t>
+  </si>
+  <si>
+    <t>YS-13</t>
+  </si>
+  <si>
+    <t>Ver el producto fue eliminado del carrito de compras</t>
+  </si>
+  <si>
+    <t>Ver que el producto fue eliminado del carrito de compras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar el item </t>
+  </si>
+  <si>
+    <t>Ver que el item fue eliminado del carrito de compras</t>
   </si>
 </sst>
 </file>
@@ -250,7 +359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,12 +369,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -355,14 +458,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -390,6 +490,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -705,10 +812,362 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F160DA0-27CE-4E13-A4C2-D2168D484335}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA127C4-19A3-4F30-8CCC-FA866DFE6D7C}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C14" sqref="C14:C18"/>
     </sheetView>
   </sheetViews>
@@ -742,13 +1201,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -762,9 +1221,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="5" t="s">
         <v>40</v>
       </c>
@@ -776,9 +1235,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
@@ -790,9 +1249,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="5" t="s">
         <v>41</v>
       </c>
@@ -807,10 +1266,10 @@
       <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="15" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -824,9 +1283,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="5" t="s">
         <v>40</v>
       </c>
@@ -838,9 +1297,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="5" t="s">
         <v>49</v>
       </c>
@@ -852,9 +1311,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="5" t="s">
         <v>53</v>
       </c>
@@ -869,10 +1328,10 @@
       <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -886,9 +1345,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="5" t="s">
         <v>40</v>
       </c>
@@ -900,9 +1359,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
@@ -914,9 +1373,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="5" t="s">
         <v>54</v>
       </c>
@@ -928,13 +1387,13 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -948,9 +1407,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="5" t="s">
         <v>40</v>
       </c>
@@ -962,9 +1421,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
@@ -976,9 +1435,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="5" t="s">
         <v>41</v>
       </c>
@@ -990,9 +1449,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="18"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="5" t="s">
         <v>57</v>
       </c>
@@ -1009,31 +1468,41 @@
       <c r="C19" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F160DA0-27CE-4E13-A4C2-D2168D484335}">
-  <dimension ref="A1:F21"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B412EA-237C-4DBE-9705-95B71194D3DE}">
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:E15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" customWidth="1"/>
+    <col min="6" max="6" width="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1056,15 +1525,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>11</v>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>12</v>
@@ -1076,297 +1545,386 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="4" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
+  <mergeCells count="15">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>